--- a/new2.xlsx
+++ b/new2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Items</t>
+          <t>Adm No</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
@@ -447,82 +457,956 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
+        <v>151345</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rogito, Marilynn Sarange </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
+        <v>139080</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maina, Nick Karanja </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
+        <v>151496</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wabuga, Linet Wangui </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
+        <v>150212</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odongo, Edward Gelazo </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
+        <v>151344</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mbindyo, Ryan Kyalo </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>150828</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kariuki, Maryfancy Njoki </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
+        <v>151089</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omondi, Leon Sebastian </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
+        <v>150907</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liaga, Isiaho O'neil </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
+        <v>151790</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haggai, Edith Amondi </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>149900</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oketch, Arnold Felix Oguda </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>151729</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aruasa, Caesar Kipkoech </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>151367</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kariuki, Alvin Nathey </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>151897</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lagho, Wendy Shighadi </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>150160</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mwapahe, Martin Lenga </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>151894</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gitiche, Emmanuel Chege </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>151097</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barasa, Conslata Nanzala </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>150323</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrilla, Vanessa </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>150668</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ndung'u, Victor Kahindo </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>150887</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Njagi, Yvonne Kanini </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>151775</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valentine, Wanjiku Muriuki </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>150335</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muga, Karmi Mugiisa Otieno </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>150873</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ndung'u, Nelius Wambui </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>150465</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gitonga, Lee Njiru  </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>150066</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mutuku, Mark Mutinda </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>151731</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mirieiri, Michael Zephaniah </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>150772</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Munyao, Lance Mwania </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>150773</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Owino, Joshua Radula </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>151728</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kyalo, Tracey Mwende </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>151541</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mbeva, Benjamin Muuo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>150328</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Luchivya, Leslie Kitiabi</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>151360</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Njihia, Ian Kimani </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>150364</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ndungi, Tiffany Jane Waithira </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>149772</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rutozi, Joey Shalom </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>5</v>
       </c>
-      <c r="B11" t="n">
-        <v>2</v>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>150473</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mwangi, Natalia Mary Wambui </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>151634</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kayanga, Brian Bona </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>150485</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busiyile, Caleb Chemwa </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>150658</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayiera, Ajani Maina </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>149958</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kiplagat, Shawn Kibet </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>151423</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orieko, Shevaun Orieko </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>134976</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keter, Emmanuel Kipngetich </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>151891</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Wamburu, Yvonne Wangui</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>151962</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wamaya, Teddy Anyonga </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>150909</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kithinji, George Fundi </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>150655</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Adan, Zubeir Abdullahi</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>151429</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kasana, Valerie Najjuma </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>150644</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Munyagia, Tracey Wairimu </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>151712</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kimutai, Bethwel Kimutai </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>151168</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isaboke, Fidel Agade </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>151392</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agil, Fatma Salim </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>150321</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ndumbe, Stanley Munene </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>151957</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Muendo, Anthony Kimanthi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>150397</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tatu, Tijani </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>150850</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayeye, Mary Atieno </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
